--- a/PANAMÁ/Género/Índice Global de la Brecha de Género.xlsx
+++ b/PANAMÁ/Género/Índice Global de la Brecha de Género.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferna\DATA INTELLIGENCE Dropbox\Diseño DATA's\BBDD-CENTROAMERICA\PANAMÁ\Género\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3428AFDE-E752-42C8-8207-69B732225C05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A042DD28-1A37-408D-9FA8-B30164989B11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,7 +587,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B25CC6-55FE-491F-AC68-9702B6FA267E}">
   <dimension ref="B2:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
